--- a/Model/BayesLSTM/Multivariate/result/Manufacturing/JPN.xlsx
+++ b/Model/BayesLSTM/Multivariate/result/Manufacturing/JPN.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,13 +463,13 @@
         <v>2002</v>
       </c>
       <c r="B2" t="n">
-        <v>20.50930786132812</v>
+        <v>20.73028373718262</v>
       </c>
       <c r="C2" t="n">
-        <v>19.85403251647949</v>
+        <v>20.57419776916504</v>
       </c>
       <c r="D2" t="n">
-        <v>21.16458320617676</v>
+        <v>20.8863697052002</v>
       </c>
     </row>
     <row r="3">
@@ -477,13 +477,13 @@
         <v>2003</v>
       </c>
       <c r="B3" t="n">
-        <v>21.01011657714844</v>
+        <v>20.78666114807129</v>
       </c>
       <c r="C3" t="n">
-        <v>20.1021671295166</v>
+        <v>20.68888092041016</v>
       </c>
       <c r="D3" t="n">
-        <v>21.91806602478027</v>
+        <v>20.88444137573242</v>
       </c>
     </row>
     <row r="4">
@@ -491,13 +491,13 @@
         <v>2004</v>
       </c>
       <c r="B4" t="n">
-        <v>21.01928520202637</v>
+        <v>21.02053642272949</v>
       </c>
       <c r="C4" t="n">
-        <v>20.17657279968262</v>
+        <v>20.93847465515137</v>
       </c>
       <c r="D4" t="n">
-        <v>21.86199760437012</v>
+        <v>21.10259819030762</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         <v>2005</v>
       </c>
       <c r="B5" t="n">
-        <v>20.75977325439453</v>
+        <v>21.27475929260254</v>
       </c>
       <c r="C5" t="n">
-        <v>19.67068862915039</v>
+        <v>21.15919876098633</v>
       </c>
       <c r="D5" t="n">
-        <v>21.84885787963867</v>
+        <v>21.39031982421875</v>
       </c>
     </row>
     <row r="6">
@@ -519,13 +519,13 @@
         <v>2006</v>
       </c>
       <c r="B6" t="n">
-        <v>20.95866394042969</v>
+        <v>21.45321464538574</v>
       </c>
       <c r="C6" t="n">
-        <v>20.00424766540527</v>
+        <v>21.3590259552002</v>
       </c>
       <c r="D6" t="n">
-        <v>21.9130802154541</v>
+        <v>21.54740333557129</v>
       </c>
     </row>
     <row r="7">
@@ -533,13 +533,13 @@
         <v>2007</v>
       </c>
       <c r="B7" t="n">
-        <v>20.76252746582031</v>
+        <v>21.44989395141602</v>
       </c>
       <c r="C7" t="n">
-        <v>19.49591064453125</v>
+        <v>21.34261703491211</v>
       </c>
       <c r="D7" t="n">
-        <v>22.02914428710938</v>
+        <v>21.55717086791992</v>
       </c>
     </row>
     <row r="8">
@@ -547,13 +547,13 @@
         <v>2008</v>
       </c>
       <c r="B8" t="n">
-        <v>20.78837966918945</v>
+        <v>21.28306007385254</v>
       </c>
       <c r="C8" t="n">
-        <v>19.86888694763184</v>
+        <v>21.1435604095459</v>
       </c>
       <c r="D8" t="n">
-        <v>21.70787239074707</v>
+        <v>21.42255973815918</v>
       </c>
     </row>
     <row r="9">
@@ -561,13 +561,13 @@
         <v>2009</v>
       </c>
       <c r="B9" t="n">
-        <v>20.89942741394043</v>
+        <v>21.01884841918945</v>
       </c>
       <c r="C9" t="n">
-        <v>19.82778167724609</v>
+        <v>20.80807113647461</v>
       </c>
       <c r="D9" t="n">
-        <v>21.97107315063477</v>
+        <v>21.2296257019043</v>
       </c>
     </row>
     <row r="10">
@@ -575,13 +575,13 @@
         <v>2010</v>
       </c>
       <c r="B10" t="n">
-        <v>20.59073066711426</v>
+        <v>20.84941101074219</v>
       </c>
       <c r="C10" t="n">
-        <v>19.4456901550293</v>
+        <v>20.59439468383789</v>
       </c>
       <c r="D10" t="n">
-        <v>21.73577117919922</v>
+        <v>21.10442733764648</v>
       </c>
     </row>
     <row r="11">
@@ -589,13 +589,13 @@
         <v>2011</v>
       </c>
       <c r="B11" t="n">
-        <v>20.66806411743164</v>
+        <v>20.94444847106934</v>
       </c>
       <c r="C11" t="n">
-        <v>19.56732749938965</v>
+        <v>20.77526664733887</v>
       </c>
       <c r="D11" t="n">
-        <v>21.76880073547363</v>
+        <v>21.1136302947998</v>
       </c>
     </row>
     <row r="12">
@@ -603,13 +603,13 @@
         <v>2012</v>
       </c>
       <c r="B12" t="n">
-        <v>20.89543724060059</v>
+        <v>21.20992851257324</v>
       </c>
       <c r="C12" t="n">
-        <v>19.78477096557617</v>
+        <v>21.0293025970459</v>
       </c>
       <c r="D12" t="n">
-        <v>22.006103515625</v>
+        <v>21.39055442810059</v>
       </c>
     </row>
     <row r="13">
@@ -617,13 +617,13 @@
         <v>2013</v>
       </c>
       <c r="B13" t="n">
-        <v>20.77975845336914</v>
+        <v>21.41147422790527</v>
       </c>
       <c r="C13" t="n">
-        <v>19.97867965698242</v>
+        <v>21.30918121337891</v>
       </c>
       <c r="D13" t="n">
-        <v>21.58083724975586</v>
+        <v>21.51376724243164</v>
       </c>
     </row>
     <row r="14">
@@ -631,13 +631,13 @@
         <v>2014</v>
       </c>
       <c r="B14" t="n">
-        <v>20.65793418884277</v>
+        <v>21.3936882019043</v>
       </c>
       <c r="C14" t="n">
-        <v>19.83622741699219</v>
+        <v>21.2713680267334</v>
       </c>
       <c r="D14" t="n">
-        <v>21.47964096069336</v>
+        <v>21.5160083770752</v>
       </c>
     </row>
     <row r="15">
@@ -645,13 +645,13 @@
         <v>2015</v>
       </c>
       <c r="B15" t="n">
-        <v>20.98092269897461</v>
+        <v>21.31872940063477</v>
       </c>
       <c r="C15" t="n">
-        <v>19.9658203125</v>
+        <v>21.1212100982666</v>
       </c>
       <c r="D15" t="n">
-        <v>21.99602508544922</v>
+        <v>21.51624870300293</v>
       </c>
     </row>
     <row r="16">
@@ -659,83 +659,13 @@
         <v>2016</v>
       </c>
       <c r="B16" t="n">
-        <v>20.80554008483887</v>
+        <v>21.12614631652832</v>
       </c>
       <c r="C16" t="n">
-        <v>20.12239074707031</v>
+        <v>20.88801002502441</v>
       </c>
       <c r="D16" t="n">
-        <v>21.48868942260742</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>2017</v>
-      </c>
-      <c r="B17" t="n">
-        <v>20.96859741210938</v>
-      </c>
-      <c r="C17" t="n">
-        <v>19.5894947052002</v>
-      </c>
-      <c r="D17" t="n">
-        <v>22.34770011901855</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B18" t="n">
-        <v>20.7205810546875</v>
-      </c>
-      <c r="C18" t="n">
-        <v>20.04141044616699</v>
-      </c>
-      <c r="D18" t="n">
-        <v>21.39975166320801</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>2019</v>
-      </c>
-      <c r="B19" t="n">
-        <v>20.86423110961914</v>
-      </c>
-      <c r="C19" t="n">
-        <v>19.86233329772949</v>
-      </c>
-      <c r="D19" t="n">
-        <v>21.86612892150879</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>2020</v>
-      </c>
-      <c r="B20" t="n">
-        <v>21.05533409118652</v>
-      </c>
-      <c r="C20" t="n">
-        <v>19.88882827758789</v>
-      </c>
-      <c r="D20" t="n">
-        <v>22.22183990478516</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B21" t="n">
-        <v>20.64774894714355</v>
-      </c>
-      <c r="C21" t="n">
-        <v>19.65971183776855</v>
-      </c>
-      <c r="D21" t="n">
-        <v>21.63578605651855</v>
+        <v>21.36428260803223</v>
       </c>
     </row>
   </sheetData>
@@ -781,72 +711,72 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="B2" t="n">
-        <v>21.33961200714111</v>
+        <v>20.82308959960938</v>
       </c>
       <c r="C2" t="n">
-        <v>20.28702066628263</v>
+        <v>20.54874038696289</v>
       </c>
       <c r="D2" t="n">
-        <v>22.3922033479996</v>
+        <v>21.09743881225586</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="B3" t="n">
-        <v>20.72974872589111</v>
+        <v>20.88263320922852</v>
       </c>
       <c r="C3" t="n">
-        <v>19.70405378464254</v>
+        <v>20.61656379699707</v>
       </c>
       <c r="D3" t="n">
-        <v>21.75544366713968</v>
+        <v>21.14870262145996</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="B4" t="n">
-        <v>21.32381343841553</v>
+        <v>21.11950874328613</v>
       </c>
       <c r="C4" t="n">
-        <v>20.92692948619126</v>
+        <v>20.8439998626709</v>
       </c>
       <c r="D4" t="n">
-        <v>21.72069739063979</v>
+        <v>21.39501762390137</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="B5" t="n">
-        <v>19.65734977722168</v>
+        <v>21.36807441711426</v>
       </c>
       <c r="C5" t="n">
-        <v>18.7232714875989</v>
+        <v>21.14396286010742</v>
       </c>
       <c r="D5" t="n">
-        <v>20.59142806684446</v>
+        <v>21.59218597412109</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2026</v>
+        <v>2021</v>
       </c>
       <c r="B6" t="n">
-        <v>20.17851142883301</v>
+        <v>21.4167537689209</v>
       </c>
       <c r="C6" t="n">
-        <v>19.40838703522223</v>
+        <v>21.31233215332031</v>
       </c>
       <c r="D6" t="n">
-        <v>20.94863582244378</v>
+        <v>21.52117538452148</v>
       </c>
     </row>
   </sheetData>
@@ -895,13 +825,13 @@
         <v>2002</v>
       </c>
       <c r="B2" t="n">
-        <v>20.24873161315918</v>
+        <v>20.84454727172852</v>
       </c>
       <c r="C2" t="n">
-        <v>19.04208183288574</v>
+        <v>20.61360359191895</v>
       </c>
       <c r="D2" t="n">
-        <v>21.45538139343262</v>
+        <v>21.07549095153809</v>
       </c>
     </row>
     <row r="3">
@@ -909,13 +839,13 @@
         <v>2003</v>
       </c>
       <c r="B3" t="n">
-        <v>20.97813034057617</v>
+        <v>21.00448226928711</v>
       </c>
       <c r="C3" t="n">
-        <v>19.86830711364746</v>
+        <v>20.79667663574219</v>
       </c>
       <c r="D3" t="n">
-        <v>22.08795356750488</v>
+        <v>21.21228790283203</v>
       </c>
     </row>
     <row r="4">
@@ -923,13 +853,13 @@
         <v>2004</v>
       </c>
       <c r="B4" t="n">
-        <v>21.11873817443848</v>
+        <v>21.26014518737793</v>
       </c>
       <c r="C4" t="n">
-        <v>19.99960708618164</v>
+        <v>21.1558837890625</v>
       </c>
       <c r="D4" t="n">
-        <v>22.23786926269531</v>
+        <v>21.36440658569336</v>
       </c>
     </row>
     <row r="5">
@@ -937,13 +867,13 @@
         <v>2005</v>
       </c>
       <c r="B5" t="n">
-        <v>20.96231842041016</v>
+        <v>21.48488807678223</v>
       </c>
       <c r="C5" t="n">
-        <v>19.48082542419434</v>
+        <v>21.34689903259277</v>
       </c>
       <c r="D5" t="n">
-        <v>22.44381141662598</v>
+        <v>21.62287712097168</v>
       </c>
     </row>
     <row r="6">
@@ -951,13 +881,13 @@
         <v>2006</v>
       </c>
       <c r="B6" t="n">
-        <v>21.46345901489258</v>
+        <v>21.71332550048828</v>
       </c>
       <c r="C6" t="n">
-        <v>20.19511032104492</v>
+        <v>21.61349296569824</v>
       </c>
       <c r="D6" t="n">
-        <v>22.73180770874023</v>
+        <v>21.81315803527832</v>
       </c>
     </row>
     <row r="7">
@@ -965,13 +895,13 @@
         <v>2007</v>
       </c>
       <c r="B7" t="n">
-        <v>21.54444885253906</v>
+        <v>21.51805114746094</v>
       </c>
       <c r="C7" t="n">
-        <v>20.74681663513184</v>
+        <v>21.3578929901123</v>
       </c>
       <c r="D7" t="n">
-        <v>22.34208106994629</v>
+        <v>21.67820930480957</v>
       </c>
     </row>
     <row r="8">
@@ -979,13 +909,13 @@
         <v>2008</v>
       </c>
       <c r="B8" t="n">
-        <v>21.2927131652832</v>
+        <v>21.21291542053223</v>
       </c>
       <c r="C8" t="n">
-        <v>20.3328857421875</v>
+        <v>21.09194564819336</v>
       </c>
       <c r="D8" t="n">
-        <v>22.25254058837891</v>
+        <v>21.33388519287109</v>
       </c>
     </row>
     <row r="9">
@@ -993,13 +923,13 @@
         <v>2009</v>
       </c>
       <c r="B9" t="n">
-        <v>21.35168647766113</v>
+        <v>20.78983497619629</v>
       </c>
       <c r="C9" t="n">
-        <v>20.79391479492188</v>
+        <v>20.57766532897949</v>
       </c>
       <c r="D9" t="n">
-        <v>21.90945816040039</v>
+        <v>21.00200462341309</v>
       </c>
     </row>
     <row r="10">
@@ -1007,13 +937,13 @@
         <v>2010</v>
       </c>
       <c r="B10" t="n">
-        <v>21.21345520019531</v>
+        <v>20.44069290161133</v>
       </c>
       <c r="C10" t="n">
-        <v>19.97093200683594</v>
+        <v>20.2078742980957</v>
       </c>
       <c r="D10" t="n">
-        <v>22.45597839355469</v>
+        <v>20.67351150512695</v>
       </c>
     </row>
     <row r="11">
@@ -1021,13 +951,13 @@
         <v>2011</v>
       </c>
       <c r="B11" t="n">
-        <v>21.36825180053711</v>
+        <v>20.45685195922852</v>
       </c>
       <c r="C11" t="n">
-        <v>20.1976432800293</v>
+        <v>20.30464363098145</v>
       </c>
       <c r="D11" t="n">
-        <v>22.53886032104492</v>
+        <v>20.60906028747559</v>
       </c>
     </row>
     <row r="12">
@@ -1035,13 +965,13 @@
         <v>2012</v>
       </c>
       <c r="B12" t="n">
-        <v>21.2934455871582</v>
+        <v>20.9260139465332</v>
       </c>
       <c r="C12" t="n">
-        <v>20.40444755554199</v>
+        <v>20.73210525512695</v>
       </c>
       <c r="D12" t="n">
-        <v>22.18244361877441</v>
+        <v>21.11992263793945</v>
       </c>
     </row>
     <row r="13">
@@ -1049,13 +979,13 @@
         <v>2013</v>
       </c>
       <c r="B13" t="n">
-        <v>21.22851371765137</v>
+        <v>21.37515830993652</v>
       </c>
       <c r="C13" t="n">
-        <v>20.29205322265625</v>
+        <v>21.13484954833984</v>
       </c>
       <c r="D13" t="n">
-        <v>22.16497421264648</v>
+        <v>21.6154670715332</v>
       </c>
     </row>
     <row r="14">
@@ -1063,13 +993,13 @@
         <v>2014</v>
       </c>
       <c r="B14" t="n">
-        <v>21.16205978393555</v>
+        <v>21.60676956176758</v>
       </c>
       <c r="C14" t="n">
-        <v>19.6883487701416</v>
+        <v>21.48301124572754</v>
       </c>
       <c r="D14" t="n">
-        <v>22.63577079772949</v>
+        <v>21.73052787780762</v>
       </c>
     </row>
     <row r="15">
@@ -1077,13 +1007,13 @@
         <v>2015</v>
       </c>
       <c r="B15" t="n">
-        <v>21.06013298034668</v>
+        <v>21.36941337585449</v>
       </c>
       <c r="C15" t="n">
-        <v>19.81997871398926</v>
+        <v>21.22018814086914</v>
       </c>
       <c r="D15" t="n">
-        <v>22.3002872467041</v>
+        <v>21.51863861083984</v>
       </c>
     </row>
     <row r="16">
@@ -1091,13 +1021,13 @@
         <v>2016</v>
       </c>
       <c r="B16" t="n">
-        <v>21.08969688415527</v>
+        <v>21.08281707763672</v>
       </c>
       <c r="C16" t="n">
-        <v>19.63604354858398</v>
+        <v>20.73852729797363</v>
       </c>
       <c r="D16" t="n">
-        <v>22.54335021972656</v>
+        <v>21.4271068572998</v>
       </c>
     </row>
     <row r="17">
@@ -1105,13 +1035,13 @@
         <v>2017</v>
       </c>
       <c r="B17" t="n">
-        <v>20.86214065551758</v>
+        <v>20.6999454498291</v>
       </c>
       <c r="C17" t="n">
-        <v>19.26197624206543</v>
+        <v>20.45270347595215</v>
       </c>
       <c r="D17" t="n">
-        <v>22.46230506896973</v>
+        <v>20.94718742370605</v>
       </c>
     </row>
     <row r="18">
@@ -1119,13 +1049,13 @@
         <v>2018</v>
       </c>
       <c r="B18" t="n">
-        <v>21.12470054626465</v>
+        <v>20.54440879821777</v>
       </c>
       <c r="C18" t="n">
-        <v>19.79174613952637</v>
+        <v>20.35181427001953</v>
       </c>
       <c r="D18" t="n">
-        <v>22.45765495300293</v>
+        <v>20.73700332641602</v>
       </c>
     </row>
     <row r="19">
@@ -1133,13 +1063,13 @@
         <v>2019</v>
       </c>
       <c r="B19" t="n">
-        <v>21.10139465332031</v>
+        <v>20.6236686706543</v>
       </c>
       <c r="C19" t="n">
-        <v>20.07443046569824</v>
+        <v>20.2340259552002</v>
       </c>
       <c r="D19" t="n">
-        <v>22.12835884094238</v>
+        <v>21.0133113861084</v>
       </c>
     </row>
     <row r="20">
@@ -1147,13 +1077,13 @@
         <v>2020</v>
       </c>
       <c r="B20" t="n">
-        <v>21.02205657958984</v>
+        <v>21.13916015625</v>
       </c>
       <c r="C20" t="n">
-        <v>19.89753913879395</v>
+        <v>20.72475433349609</v>
       </c>
       <c r="D20" t="n">
-        <v>22.14657402038574</v>
+        <v>21.55356597900391</v>
       </c>
     </row>
     <row r="21">
@@ -1161,13 +1091,13 @@
         <v>2021</v>
       </c>
       <c r="B21" t="n">
-        <v>21.46226119995117</v>
+        <v>21.52420234680176</v>
       </c>
       <c r="C21" t="n">
-        <v>20.37746047973633</v>
+        <v>21.2287654876709</v>
       </c>
       <c r="D21" t="n">
-        <v>22.54706192016602</v>
+        <v>21.81963920593262</v>
       </c>
     </row>
   </sheetData>
@@ -1216,13 +1146,13 @@
         <v>2022</v>
       </c>
       <c r="B2" t="n">
-        <v>21.39527854919434</v>
+        <v>22.98090171813965</v>
       </c>
       <c r="C2" t="n">
-        <v>20.68047867959191</v>
+        <v>22.83012061818206</v>
       </c>
       <c r="D2" t="n">
-        <v>22.11007841879676</v>
+        <v>23.13168281809723</v>
       </c>
     </row>
     <row r="3">
@@ -1230,13 +1160,13 @@
         <v>2023</v>
       </c>
       <c r="B3" t="n">
-        <v>21.79069137573242</v>
+        <v>22.53983402252197</v>
       </c>
       <c r="C3" t="n">
-        <v>21.40349395671132</v>
+        <v>22.44228858032175</v>
       </c>
       <c r="D3" t="n">
-        <v>22.17788879475352</v>
+        <v>22.6373794647222</v>
       </c>
     </row>
     <row r="4">
@@ -1244,13 +1174,13 @@
         <v>2024</v>
       </c>
       <c r="B4" t="n">
-        <v>20.91869220733643</v>
+        <v>22.22565670013428</v>
       </c>
       <c r="C4" t="n">
-        <v>19.92771660157279</v>
+        <v>22.08617604229856</v>
       </c>
       <c r="D4" t="n">
-        <v>21.90966781310007</v>
+        <v>22.36513735796999</v>
       </c>
     </row>
     <row r="5">
@@ -1258,13 +1188,13 @@
         <v>2025</v>
       </c>
       <c r="B5" t="n">
-        <v>21.72552909851074</v>
+        <v>21.24347934722901</v>
       </c>
       <c r="C5" t="n">
-        <v>21.16807849730368</v>
+        <v>21.12485125678142</v>
       </c>
       <c r="D5" t="n">
-        <v>22.2829796997178</v>
+        <v>21.36210743767659</v>
       </c>
     </row>
     <row r="6">
@@ -1272,13 +1202,13 @@
         <v>2026</v>
       </c>
       <c r="B6" t="n">
-        <v>20.45011196136475</v>
+        <v>20.80163135528564</v>
       </c>
       <c r="C6" t="n">
-        <v>19.33305076788131</v>
+        <v>20.58368602168973</v>
       </c>
       <c r="D6" t="n">
-        <v>21.56717315484819</v>
+        <v>21.01957668888156</v>
       </c>
     </row>
   </sheetData>
